--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1E1D2C-DDE2-4718-BD66-C39BBDADBD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0E1E1D2C-DDE2-4718-BD66-C39BBDADBD2C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="base_showcase" sheetId="5" r:id="rId2"/>
-    <sheet name="function_projectfile" sheetId="6" r:id="rId3"/>
-    <sheet name="function_array" sheetId="7" r:id="rId4"/>
-    <sheet name="function_count" sheetId="9" r:id="rId5"/>
-    <sheet name="function_date" sheetId="10" r:id="rId6"/>
-    <sheet name="actual_in_output" sheetId="8" r:id="rId7"/>
-    <sheet name="actual_in_output2" sheetId="11" r:id="rId8"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="base_showcase" r:id="rId2" sheetId="5"/>
+    <sheet name="function_projectfile" r:id="rId3" sheetId="6"/>
+    <sheet name="function_array" r:id="rId4" sheetId="7"/>
+    <sheet name="function_count" r:id="rId5" sheetId="9"/>
+    <sheet name="function_date" r:id="rId6" sheetId="10"/>
+    <sheet name="actual_in_output" r:id="rId7" sheetId="8"/>
+    <sheet name="actual_in_output2" r:id="rId8" sheetId="11"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -35,7 +35,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -45,7 +45,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -53,15 +53,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="967">
   <si>
     <t>description</t>
   </si>
@@ -2829,12 +2829,172 @@
 $(random|alphanumeric|10000)
 $(random|alphanumeric|2700)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2911,8 +3071,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2929,6 +3303,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3090,205 +3736,307 @@
     </border>
   </borders>
   <cellStyleXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="19"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="20"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="21"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="22"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="23"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="24"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="25"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="26"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="27"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="28"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="29"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="30"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="31"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -3502,7 +4250,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3527,10 +4275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3565,7 +4313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3600,7 +4348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3694,21 +4442,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3725,7 +4473,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3777,30 +4525,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3880,25 +4628,28 @@
         <v>903</v>
       </c>
       <c r="AA1" t="s">
+        <v>914</v>
+      </c>
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>701</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -3978,25 +4729,28 @@
         <v>907</v>
       </c>
       <c r="AA2" t="s">
+        <v>922</v>
+      </c>
+      <c r="AB2" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>124</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>133</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>718</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>773</v>
       </c>
@@ -4067,25 +4821,28 @@
         <v>908</v>
       </c>
       <c r="AA3" t="s">
+        <v>923</v>
+      </c>
+      <c r="AB3" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>637</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>132</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>799</v>
       </c>
@@ -4153,25 +4910,28 @@
         <v>909</v>
       </c>
       <c r="AA4" t="s">
+        <v>924</v>
+      </c>
+      <c r="AB4" t="s">
         <v>886</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>121</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>126</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>132</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>719</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>877</v>
       </c>
@@ -4227,25 +4987,28 @@
         <v>632</v>
       </c>
       <c r="AA5" t="s">
+        <v>925</v>
+      </c>
+      <c r="AB5" t="s">
         <v>880</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>122</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>897</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>720</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4298,25 +5061,28 @@
         <v>634</v>
       </c>
       <c r="AA6" t="s">
+        <v>926</v>
+      </c>
+      <c r="AB6" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>730</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>127</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>135</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>721</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -4360,25 +5126,28 @@
         <v>633</v>
       </c>
       <c r="AA7" t="s">
+        <v>927</v>
+      </c>
+      <c r="AB7" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>731</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>128</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>136</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>722</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4422,25 +5191,28 @@
         <v>635</v>
       </c>
       <c r="AA8" t="s">
+        <v>928</v>
+      </c>
+      <c r="AB8" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>123</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>129</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>137</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>723</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -4481,19 +5253,22 @@
         <v>636</v>
       </c>
       <c r="AA9" t="s">
+        <v>929</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>130</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>180</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -4525,19 +5300,22 @@
         <v>695</v>
       </c>
       <c r="AA10" t="s">
+        <v>930</v>
+      </c>
+      <c r="AB10" t="s">
         <v>530</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>898</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>181</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -4563,19 +5341,22 @@
         <v>164</v>
       </c>
       <c r="S11" t="s">
-        <v>520</v>
+        <v>921</v>
       </c>
       <c r="AA11" t="s">
+        <v>931</v>
+      </c>
+      <c r="AB11" t="s">
         <v>531</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>532</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -4601,19 +5382,22 @@
         <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA12" t="s">
+        <v>932</v>
+      </c>
+      <c r="AB12" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>138</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>608</v>
       </c>
@@ -4639,19 +5423,22 @@
         <v>165</v>
       </c>
       <c r="S13" t="s">
-        <v>890</v>
+        <v>521</v>
       </c>
       <c r="AA13" t="s">
+        <v>933</v>
+      </c>
+      <c r="AB13" t="s">
         <v>599</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>139</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -4674,19 +5461,22 @@
         <v>166</v>
       </c>
       <c r="S14" t="s">
-        <v>526</v>
+        <v>890</v>
       </c>
       <c r="AA14" t="s">
+        <v>934</v>
+      </c>
+      <c r="AB14" t="s">
         <v>51</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>140</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>825</v>
       </c>
@@ -4709,19 +5499,22 @@
         <v>813</v>
       </c>
       <c r="S15" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AA15" t="s">
+        <v>935</v>
+      </c>
+      <c r="AB15" t="s">
         <v>910</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>141</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>790</v>
       </c>
@@ -4744,19 +5537,22 @@
         <v>814</v>
       </c>
       <c r="S16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA16" t="s">
+        <v>936</v>
+      </c>
+      <c r="AB16" t="s">
         <v>891</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>142</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4773,19 +5569,22 @@
         <v>192</v>
       </c>
       <c r="S17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AA17" t="s">
+        <v>937</v>
+      </c>
+      <c r="AB17" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>776</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4801,19 +5600,25 @@
       <c r="N18" t="s">
         <v>193</v>
       </c>
+      <c r="S18" t="s">
+        <v>524</v>
+      </c>
       <c r="AA18" t="s">
+        <v>938</v>
+      </c>
+      <c r="AB18" t="s">
         <v>44</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>511</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>915</v>
       </c>
       <c r="H19" t="s">
         <v>179</v>
@@ -4822,18 +5627,21 @@
         <v>741</v>
       </c>
       <c r="AA19" t="s">
+        <v>939</v>
+      </c>
+      <c r="AB19" t="s">
         <v>815</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>916</v>
       </c>
       <c r="H20" t="s">
         <v>569</v>
@@ -4842,18 +5650,21 @@
         <v>170</v>
       </c>
       <c r="AA20" t="s">
+        <v>940</v>
+      </c>
+      <c r="AB20" t="s">
         <v>53</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>686</v>
       </c>
       <c r="F21" t="s">
-        <v>529</v>
+        <v>917</v>
       </c>
       <c r="H21" t="s">
         <v>570</v>
@@ -4862,18 +5673,21 @@
         <v>171</v>
       </c>
       <c r="AA21" t="s">
+        <v>941</v>
+      </c>
+      <c r="AB21" t="s">
         <v>54</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>699</v>
       </c>
       <c r="F22" t="s">
-        <v>865</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
         <v>571</v>
@@ -4882,18 +5696,21 @@
         <v>883</v>
       </c>
       <c r="AA22" t="s">
+        <v>942</v>
+      </c>
+      <c r="AB22" t="s">
         <v>55</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>700</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
         <v>572</v>
@@ -4902,18 +5719,21 @@
         <v>784</v>
       </c>
       <c r="AA23" t="s">
+        <v>943</v>
+      </c>
+      <c r="AB23" t="s">
         <v>56</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>630</v>
       </c>
       <c r="F24" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="H24" t="s">
         <v>563</v>
@@ -4922,18 +5742,21 @@
         <v>150</v>
       </c>
       <c r="AA24" t="s">
+        <v>944</v>
+      </c>
+      <c r="AB24" t="s">
         <v>796</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>682</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>918</v>
       </c>
       <c r="H25" t="s">
         <v>552</v>
@@ -4942,948 +5765,1041 @@
         <v>670</v>
       </c>
       <c r="AA25" t="s">
+        <v>945</v>
+      </c>
+      <c r="AB25" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>903</v>
       </c>
       <c r="F26" t="s">
-        <v>734</v>
+        <v>865</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
       </c>
       <c r="L26" t="s">
-        <v>836</v>
+        <v>920</v>
       </c>
       <c r="AA26" t="s">
+        <v>946</v>
+      </c>
+      <c r="AB26" t="s">
         <v>871</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>914</v>
       </c>
       <c r="F27" t="s">
-        <v>451</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
         <v>555</v>
       </c>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>836</v>
       </c>
       <c r="AA27" t="s">
+        <v>947</v>
+      </c>
+      <c r="AB27" t="s">
         <v>58</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="H28" t="s">
         <v>539</v>
       </c>
       <c r="L28" t="s">
-        <v>727</v>
+        <v>151</v>
       </c>
       <c r="AA28" t="s">
+        <v>948</v>
+      </c>
+      <c r="AB28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>782</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
         <v>556</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>727</v>
       </c>
       <c r="AA29" t="s">
+        <v>949</v>
+      </c>
+      <c r="AB29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="H30" t="s">
         <v>557</v>
       </c>
       <c r="L30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA30" t="s">
+        <v>950</v>
+      </c>
+      <c r="AB30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>701</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>703</v>
+        <v>451</v>
       </c>
       <c r="H31" t="s">
         <v>391</v>
       </c>
+      <c r="L31" t="s">
+        <v>153</v>
+      </c>
       <c r="AA31" t="s">
+        <v>951</v>
+      </c>
+      <c r="AB31" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>701</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>452</v>
       </c>
       <c r="H32" t="s">
         <v>548</v>
       </c>
       <c r="AA32" t="s">
+        <v>952</v>
+      </c>
+      <c r="AB32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>482</v>
+      </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>782</v>
       </c>
       <c r="H33" t="s">
         <v>558</v>
       </c>
       <c r="AA33" t="s">
+        <v>953</v>
+      </c>
+      <c r="AB33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>42</v>
+        <v>783</v>
       </c>
       <c r="H34" t="s">
         <v>821</v>
       </c>
       <c r="AA34" t="s">
+        <v>954</v>
+      </c>
+      <c r="AB34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>159</v>
+        <v>703</v>
       </c>
       <c r="H35" t="s">
         <v>533</v>
       </c>
       <c r="AA35" t="s">
+        <v>955</v>
+      </c>
+      <c r="AB35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
         <v>603</v>
       </c>
       <c r="AA36" t="s">
+        <v>956</v>
+      </c>
+      <c r="AB36" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
         <v>581</v>
       </c>
       <c r="AA37" t="s">
+        <v>957</v>
+      </c>
+      <c r="AB37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
         <v>534</v>
       </c>
       <c r="AA38" t="s">
+        <v>958</v>
+      </c>
+      <c r="AB38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H39" t="s">
         <v>582</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
       <c r="H40" t="s">
         <v>540</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
       <c r="H41" t="s">
         <v>157</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
       <c r="H42" t="s">
         <v>390</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
       <c r="H43" t="s">
         <v>866</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>919</v>
+      </c>
       <c r="H44" t="s">
         <v>562</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>573</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>574</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>618</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>617</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>575</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>614</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>641</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>576</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>629</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>604</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>541</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>565</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>566</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>867</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>567</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>577</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>586</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>612</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>583</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>584</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>642</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>643</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>620</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>587</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>542</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>854</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>588</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>696</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>578</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>697</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>535</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>822</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>619</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>553</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>559</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>564</v>
       </c>
-      <c r="AA81" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>704</v>
       </c>
-      <c r="AA82" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>605</v>
       </c>
-      <c r="AA83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>543</v>
       </c>
-      <c r="AA84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>554</v>
       </c>
-      <c r="AA85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>560</v>
       </c>
-      <c r="AA86" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>549</v>
       </c>
-      <c r="AA87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>855</v>
       </c>
-      <c r="AA88" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>544</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>561</v>
       </c>
-      <c r="AA90" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>545</v>
       </c>
-      <c r="AA91" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>546</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>579</v>
       </c>
-      <c r="AA93" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>585</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>568</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>615</v>
       </c>
-      <c r="AA96" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>550</v>
       </c>
-      <c r="AA97" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>551</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>966</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="23.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="23.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="55.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="9.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="44.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="35.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="44.375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="23.625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="25" width="39.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5914,7 +6830,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -5935,7 +6851,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -5952,7 +6868,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
@@ -5997,7 +6913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>210</v>
       </c>
@@ -6024,7 +6940,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>211</v>
@@ -6049,7 +6965,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>214</v>
@@ -6076,7 +6992,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -6099,7 +7015,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -6124,7 +7040,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -6147,7 +7063,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>218</v>
@@ -6174,7 +7090,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -6199,7 +7115,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>220</v>
@@ -6226,7 +7142,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -6251,7 +7167,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>223</v>
@@ -6278,7 +7194,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -6303,7 +7219,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -6328,7 +7244,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -6351,7 +7267,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>227</v>
@@ -6378,7 +7294,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -6405,7 +7321,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -6430,7 +7346,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -6455,7 +7371,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
@@ -6480,7 +7396,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>233</v>
@@ -6509,7 +7425,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
@@ -6536,7 +7452,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>237</v>
@@ -6561,7 +7477,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>239</v>
@@ -6586,7 +7502,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
@@ -6613,7 +7529,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>243</v>
@@ -6640,7 +7556,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12" t="s">
@@ -6665,7 +7581,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7" t="s">
         <v>245</v>
@@ -6694,7 +7610,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>247</v>
       </c>
@@ -6725,7 +7641,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
@@ -6750,7 +7666,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
@@ -6775,7 +7691,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
@@ -6802,7 +7718,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
@@ -6827,7 +7743,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>259</v>
@@ -6856,7 +7772,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12" t="s">
@@ -6881,7 +7797,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>264</v>
@@ -6912,7 +7828,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12" t="s">
@@ -6937,7 +7853,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12" t="s">
@@ -6964,7 +7880,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12" t="s">
@@ -6989,7 +7905,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>448</v>
@@ -7020,7 +7936,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="20.100000000000001" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12" t="s">
@@ -7045,7 +7961,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12" t="s">
@@ -7070,7 +7986,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>275</v>
@@ -7097,7 +8013,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12" t="s">
@@ -7122,7 +8038,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>277</v>
       </c>
@@ -7153,7 +8069,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>281</v>
@@ -7182,7 +8098,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>662</v>
@@ -7211,7 +8127,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>663</v>
@@ -7240,7 +8156,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="12" t="s">
@@ -7265,7 +8181,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>285</v>
@@ -7292,7 +8208,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>286</v>
       </c>
@@ -7319,7 +8235,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>779</v>
@@ -7344,7 +8260,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>288</v>
@@ -7371,7 +8287,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>289</v>
@@ -7396,7 +8312,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>290</v>
@@ -7421,7 +8337,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>291</v>
@@ -7446,7 +8362,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="12" t="s">
@@ -7469,7 +8385,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="12" t="s">
@@ -7492,7 +8408,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="12" t="s">
@@ -7515,7 +8431,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="12" t="s">
@@ -7538,7 +8454,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>297</v>
@@ -7565,7 +8481,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="12" t="s">
@@ -7590,7 +8506,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="12" t="s">
@@ -7615,7 +8531,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="12" t="s">
@@ -7640,7 +8556,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="12" t="s">
@@ -7665,7 +8581,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="12" t="s">
@@ -7690,7 +8606,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="12" t="s">
@@ -7715,7 +8631,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="12" t="s">
@@ -7740,7 +8656,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="12" t="s">
@@ -7765,7 +8681,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="12" t="s">
@@ -7790,7 +8706,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="12" t="s">
@@ -7815,7 +8731,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="12" t="s">
@@ -7840,7 +8756,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="12" t="s">
@@ -7865,7 +8781,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="12" t="s">
@@ -7890,7 +8806,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>326</v>
@@ -7917,7 +8833,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="12" t="s">
@@ -7940,7 +8856,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="12" t="s">
@@ -7963,7 +8879,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="12" t="s">
@@ -7988,7 +8904,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="12" t="s">
@@ -8011,7 +8927,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>334</v>
@@ -8038,7 +8954,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="12" t="s">
@@ -8061,7 +8977,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="12" t="s">
@@ -8086,7 +9002,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="12" t="s">
@@ -8109,7 +9025,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>470</v>
@@ -8138,7 +9054,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>471</v>
@@ -8167,7 +9083,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>431</v>
       </c>
@@ -8196,7 +9112,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>664</v>
@@ -8221,7 +9137,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>439</v>
@@ -8248,7 +9164,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>440</v>
@@ -8275,7 +9191,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>437</v>
       </c>
@@ -8304,7 +9220,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>445</v>
@@ -8333,7 +9249,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>473</v>
       </c>
@@ -8364,7 +9280,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="12" t="s">
@@ -8391,7 +9307,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>477</v>
@@ -8418,7 +9334,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="12"/>
@@ -8435,7 +9351,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="12"/>
@@ -8452,7 +9368,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="12"/>
@@ -8470,7 +9386,7 @@
       <c r="O100" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8478,55 +9394,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="20" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="19" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="18" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C7 C9:C100" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C7 C9:C100" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D7 D9:D100" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D7 D9:D100" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="17.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="25.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="6.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="32.375" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="9" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -8557,7 +9473,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -8578,7 +9494,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -8595,7 +9511,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
@@ -8640,7 +9556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>341</v>
       </c>
@@ -8667,7 +9583,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>342</v>
@@ -8696,7 +9612,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>345</v>
@@ -8721,7 +9637,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -8746,7 +9662,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -8771,7 +9687,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>348</v>
@@ -8798,7 +9714,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>350</v>
@@ -8825,7 +9741,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -8842,7 +9758,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -8859,7 +9775,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -8876,7 +9792,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -8893,7 +9809,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -8910,7 +9826,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -8927,7 +9843,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -8944,7 +9860,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -8961,7 +9877,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -8978,7 +9894,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -8995,7 +9911,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -9012,7 +9928,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -9029,7 +9945,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -9046,7 +9962,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -9063,7 +9979,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -9080,7 +9996,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -9097,7 +10013,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -9114,7 +10030,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -9131,7 +10047,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -9148,7 +10064,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12"/>
@@ -9165,7 +10081,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -9182,7 +10098,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -9199,7 +10115,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -9216,7 +10132,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -9233,7 +10149,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -9250,7 +10166,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -9267,7 +10183,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -9284,7 +10200,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -9301,7 +10217,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -9318,7 +10234,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -9335,7 +10251,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -9352,7 +10268,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -9369,7 +10285,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -9386,7 +10302,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -9403,7 +10319,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -9420,7 +10336,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -9437,7 +10353,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -9454,7 +10370,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -9471,7 +10387,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -9489,7 +10405,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9497,57 +10413,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="17" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="16" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="15" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="17.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="24.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="44.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="35.875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="52.5" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -9578,7 +10494,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -9599,7 +10515,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -9616,7 +10532,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
@@ -9661,7 +10577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>351</v>
       </c>
@@ -9688,7 +10604,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -9713,7 +10629,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -9738,7 +10654,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -9763,7 +10679,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -9788,7 +10704,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -9813,7 +10729,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -9838,7 +10754,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -9863,7 +10779,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -9888,7 +10804,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -9913,7 +10829,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -9938,7 +10854,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -9963,7 +10879,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -9988,7 +10904,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -10013,7 +10929,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -10038,7 +10954,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -10063,7 +10979,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -10088,7 +11004,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -10113,7 +11029,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
@@ -10138,7 +11054,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -10163,7 +11079,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
@@ -10188,7 +11104,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>744</v>
       </c>
@@ -10215,7 +11131,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="4" t="s">
         <v>754</v>
@@ -10244,7 +11160,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="4" t="s">
         <v>755</v>
@@ -10271,7 +11187,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="4" t="s">
         <v>758</v>
@@ -10298,7 +11214,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="4" t="s">
         <v>756</v>
@@ -10325,7 +11241,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12" t="s">
@@ -10350,7 +11266,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="4" t="s">
         <v>757</v>
@@ -10377,7 +11293,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="4" t="s">
         <v>756</v>
@@ -10404,7 +11320,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="4" t="s">
         <v>758</v>
@@ -10431,7 +11347,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -10448,7 +11364,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -10465,7 +11381,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -10482,7 +11398,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -10499,7 +11415,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -10516,7 +11432,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -10533,7 +11449,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -10550,7 +11466,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -10567,7 +11483,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -10584,7 +11500,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -10601,7 +11517,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -10618,7 +11534,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -10635,7 +11551,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -10652,7 +11568,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -10669,7 +11585,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -10686,7 +11602,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -10704,7 +11620,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10712,56 +11628,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="75.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="20.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="9.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="75.625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -10792,7 +11708,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="103.5" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -10813,7 +11729,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -10830,7 +11746,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
@@ -10875,7 +11791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>493</v>
       </c>
@@ -10902,7 +11818,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -10927,7 +11843,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -10952,7 +11868,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -10977,7 +11893,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -11002,7 +11918,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -11027,7 +11943,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -11052,7 +11968,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -11077,7 +11993,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -11102,7 +12018,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -11127,7 +12043,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -11152,7 +12068,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -11177,7 +12093,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -11202,7 +12118,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -11227,7 +12143,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -11252,7 +12168,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -11277,7 +12193,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -11302,7 +12218,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -11327,7 +12243,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>454</v>
       </c>
@@ -11354,7 +12270,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -11379,7 +12295,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
@@ -11404,7 +12320,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
@@ -11429,7 +12345,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12" t="s">
@@ -11454,7 +12370,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
@@ -11479,7 +12395,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12" t="s">
@@ -11504,7 +12420,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12" t="s">
@@ -11529,7 +12445,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
@@ -11554,7 +12470,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12" t="s">
@@ -11579,7 +12495,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>628</v>
       </c>
@@ -11604,7 +12520,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -11621,7 +12537,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -11638,7 +12554,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -11655,7 +12571,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -11672,7 +12588,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -11689,7 +12605,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -11706,7 +12622,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -11723,7 +12639,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -11740,7 +12656,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -11757,7 +12673,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -11774,7 +12690,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -11791,7 +12707,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -11808,7 +12724,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -11825,7 +12741,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -11842,7 +12758,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -11859,7 +12775,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -11876,7 +12792,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -11894,7 +12810,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11902,55 +12818,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="18.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="9.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="9" width="20.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -11981,7 +12897,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -12002,7 +12918,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -12019,7 +12935,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
@@ -12064,7 +12980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>494</v>
       </c>
@@ -12091,7 +13007,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -12114,7 +13030,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -12137,7 +13053,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -12160,7 +13076,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -12183,7 +13099,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -12206,7 +13122,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -12229,7 +13145,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -12252,7 +13168,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -12275,7 +13191,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -12298,7 +13214,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -12321,7 +13237,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -12344,7 +13260,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -12367,7 +13283,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -12390,7 +13306,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -12413,7 +13329,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>761</v>
       </c>
@@ -12440,7 +13356,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -12465,7 +13381,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -12490,7 +13406,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
@@ -12515,7 +13431,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -12540,7 +13456,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -12557,7 +13473,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -12574,7 +13490,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -12591,7 +13507,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -12608,7 +13524,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -12625,7 +13541,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -12642,7 +13558,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -12659,7 +13575,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -12676,7 +13592,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -12693,7 +13609,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -12710,7 +13626,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -12727,7 +13643,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -12744,7 +13660,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -12761,7 +13677,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -12778,7 +13694,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -12795,7 +13711,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -12812,7 +13728,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -12829,7 +13745,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -12846,7 +13762,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -12863,7 +13779,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -12880,7 +13796,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -12897,7 +13813,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -12914,7 +13830,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -12931,7 +13847,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -12948,7 +13864,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -12965,7 +13881,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -12983,7 +13899,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -12991,55 +13907,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="50.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="17.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="50.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="43.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="35.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -13070,7 +13986,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>399</v>
       </c>
@@ -13091,7 +14007,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -13108,7 +14024,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
@@ -13182,7 +14098,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -13207,7 +14123,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -13232,7 +14148,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -13257,7 +14173,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>401</v>
       </c>
@@ -13286,7 +14202,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -13311,7 +14227,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>402</v>
       </c>
@@ -13338,7 +14254,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -13361,7 +14277,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>403</v>
       </c>
@@ -13390,7 +14306,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -13415,7 +14331,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>419</v>
       </c>
@@ -13442,7 +14358,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -13465,7 +14381,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>420</v>
@@ -13492,7 +14408,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -13519,7 +14435,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>350</v>
       </c>
@@ -13546,7 +14462,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -13571,7 +14487,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -13596,7 +14512,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>423</v>
@@ -13621,7 +14537,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -13638,7 +14554,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -13655,7 +14571,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -13672,7 +14588,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -13689,7 +14605,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -13706,7 +14622,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -13723,7 +14639,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -13740,7 +14656,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -13757,7 +14673,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -13774,7 +14690,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -13791,7 +14707,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -13808,7 +14724,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -13825,7 +14741,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -13842,7 +14758,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -13859,7 +14775,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -13876,7 +14792,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -13893,7 +14809,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -13910,7 +14826,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -13927,7 +14843,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -13944,7 +14860,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -13961,7 +14877,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -13978,7 +14894,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -13995,7 +14911,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -14012,7 +14928,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -14029,7 +14945,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -14046,7 +14962,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -14063,7 +14979,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -14080,7 +14996,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -14098,7 +15014,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -14106,56 +15022,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="18.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="40.0" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -14186,7 +15102,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -14205,7 +15121,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -14222,7 +15138,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
@@ -14267,7 +15183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>839</v>
       </c>
@@ -14294,7 +15210,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -14319,7 +15235,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>846</v>
       </c>
@@ -14346,7 +15262,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -14371,7 +15287,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>847</v>
       </c>
@@ -14398,7 +15314,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -14423,7 +15339,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="66.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -14448,7 +15364,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -14473,7 +15389,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -14498,7 +15414,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -14515,7 +15431,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -14532,7 +15448,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -14549,7 +15465,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -14566,7 +15482,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -14583,7 +15499,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -14600,7 +15516,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -14617,7 +15533,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -14634,7 +15550,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -14651,7 +15567,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -14668,7 +15584,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -14685,7 +15601,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -14702,7 +15618,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -14719,7 +15635,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -14736,7 +15652,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -14753,7 +15669,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -14770,7 +15686,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -14787,7 +15703,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -14804,7 +15720,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -14821,7 +15737,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -14838,7 +15754,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -14855,7 +15771,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -14872,7 +15788,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -14889,7 +15805,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -14906,7 +15822,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -14923,7 +15839,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -14940,7 +15856,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -14957,7 +15873,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -14974,7 +15890,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -14991,7 +15907,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -15008,7 +15924,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -15025,7 +15941,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -15042,7 +15958,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -15059,7 +15975,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -15076,7 +15992,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -15093,7 +16009,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -15110,7 +16026,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -15128,7 +16044,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -15136,25 +16052,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233B06D7-297B-4ADA-99C7-BD560FFCEF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{233B06D7-297B-4ADA-99C7-BD560FFCEF17}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="base_showcase" sheetId="5" r:id="rId2"/>
-    <sheet name="function_projectfile" sheetId="6" r:id="rId3"/>
-    <sheet name="function_array" sheetId="7" r:id="rId4"/>
-    <sheet name="function_count" sheetId="9" r:id="rId5"/>
-    <sheet name="function_date" sheetId="10" r:id="rId6"/>
-    <sheet name="actual_in_output" sheetId="8" r:id="rId7"/>
-    <sheet name="actual_in_output2" sheetId="11" r:id="rId8"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="base_showcase" r:id="rId2" sheetId="5"/>
+    <sheet name="function_projectfile" r:id="rId3" sheetId="6"/>
+    <sheet name="function_array" r:id="rId4" sheetId="7"/>
+    <sheet name="function_count" r:id="rId5" sheetId="9"/>
+    <sheet name="function_date" r:id="rId6" sheetId="10"/>
+    <sheet name="actual_in_output" r:id="rId7" sheetId="8"/>
+    <sheet name="actual_in_output2" r:id="rId8" sheetId="11"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="934">
   <si>
     <t>description</t>
   </si>
@@ -2894,7 +2894,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2971,8 +2972,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2989,6 +3204,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3150,205 +3637,307 @@
     </border>
   </borders>
   <cellStyleXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="19"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="20"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="21"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="22"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="23"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="24"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="25"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="26"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="27"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="28"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="29"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="30"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="31"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -3562,7 +4151,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3587,10 +4176,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3625,7 +4214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3660,7 +4249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3754,21 +4343,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3785,7 +4374,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3837,30 +4426,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +4547,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>643</v>
       </c>
@@ -4056,7 +4645,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>772</v>
       </c>
@@ -4145,7 +4734,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>798</v>
       </c>
@@ -4231,7 +4820,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>876</v>
       </c>
@@ -4305,7 +4894,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4376,7 +4965,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -4441,7 +5030,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4503,7 +5092,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -4556,7 +5145,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -4600,7 +5189,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -4638,7 +5227,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -4676,7 +5265,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>607</v>
       </c>
@@ -4714,7 +5303,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -4749,7 +5338,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>824</v>
       </c>
@@ -4784,7 +5373,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>789</v>
       </c>
@@ -4819,7 +5408,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -4848,7 +5437,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4874,7 +5463,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -4894,7 +5483,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -4914,7 +5503,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>685</v>
       </c>
@@ -4934,7 +5523,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>698</v>
       </c>
@@ -4954,7 +5543,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>699</v>
       </c>
@@ -4974,7 +5563,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>629</v>
       </c>
@@ -4994,7 +5583,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>681</v>
       </c>
@@ -5014,7 +5603,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>901</v>
       </c>
@@ -5034,7 +5623,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -5054,7 +5643,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -5071,7 +5660,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -5088,7 +5677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -5105,7 +5694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>700</v>
       </c>
@@ -5122,7 +5711,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>481</v>
       </c>
@@ -5136,7 +5725,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="F33" t="s">
         <v>451</v>
       </c>
@@ -5147,7 +5736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
         <v>781</v>
       </c>
@@ -5158,7 +5747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
         <v>782</v>
       </c>
@@ -5169,7 +5758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
         <v>702</v>
       </c>
@@ -5180,7 +5769,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
         <v>157</v>
       </c>
@@ -5191,7 +5780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
         <v>41</v>
       </c>
@@ -5202,7 +5791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
         <v>42</v>
       </c>
@@ -5213,7 +5802,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="F40" t="s">
         <v>158</v>
       </c>
@@ -5224,7 +5813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="F41" t="s">
         <v>159</v>
       </c>
@@ -5235,7 +5824,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="F42" t="s">
         <v>160</v>
       </c>
@@ -5246,7 +5835,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="F43" t="s">
         <v>43</v>
       </c>
@@ -5257,7 +5846,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="F44" t="s">
         <v>153</v>
       </c>
@@ -5268,7 +5857,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="F45" t="s">
         <v>916</v>
       </c>
@@ -5279,7 +5868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>573</v>
       </c>
@@ -5287,7 +5876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>617</v>
       </c>
@@ -5295,7 +5884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>616</v>
       </c>
@@ -5303,7 +5892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>208</v>
       </c>
@@ -5311,7 +5900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>574</v>
       </c>
@@ -5319,7 +5908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>613</v>
       </c>
@@ -5327,7 +5916,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>640</v>
       </c>
@@ -5335,7 +5924,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>575</v>
       </c>
@@ -5343,7 +5932,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>628</v>
       </c>
@@ -5351,7 +5940,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>603</v>
       </c>
@@ -5359,7 +5948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>540</v>
       </c>
@@ -5367,7 +5956,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>564</v>
       </c>
@@ -5375,7 +5964,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>565</v>
       </c>
@@ -5383,7 +5972,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>866</v>
       </c>
@@ -5391,7 +5980,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>566</v>
       </c>
@@ -5399,7 +5988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>576</v>
       </c>
@@ -5407,7 +5996,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>585</v>
       </c>
@@ -5415,7 +6004,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>611</v>
       </c>
@@ -5423,7 +6012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>582</v>
       </c>
@@ -5431,7 +6020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>583</v>
       </c>
@@ -5439,7 +6028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>641</v>
       </c>
@@ -5447,7 +6036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>642</v>
       </c>
@@ -5455,7 +6044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>619</v>
       </c>
@@ -5463,7 +6052,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>586</v>
       </c>
@@ -5471,7 +6060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>541</v>
       </c>
@@ -5479,7 +6068,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>853</v>
       </c>
@@ -5487,7 +6076,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>587</v>
       </c>
@@ -5495,7 +6084,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>695</v>
       </c>
@@ -5503,7 +6092,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>577</v>
       </c>
@@ -5511,7 +6100,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>696</v>
       </c>
@@ -5519,7 +6108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>534</v>
       </c>
@@ -5527,7 +6116,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>821</v>
       </c>
@@ -5535,7 +6124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>618</v>
       </c>
@@ -5543,7 +6132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>552</v>
       </c>
@@ -5551,7 +6140,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="H80" t="s">
         <v>558</v>
       </c>
@@ -5559,7 +6148,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="H81" t="s">
         <v>563</v>
       </c>
@@ -5567,7 +6156,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="H82" t="s">
         <v>703</v>
       </c>
@@ -5575,7 +6164,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="H83" t="s">
         <v>604</v>
       </c>
@@ -5583,7 +6172,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="H84" t="s">
         <v>542</v>
       </c>
@@ -5591,7 +6180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="H85" t="s">
         <v>553</v>
       </c>
@@ -5599,7 +6188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="H86" t="s">
         <v>559</v>
       </c>
@@ -5607,7 +6196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="H87" t="s">
         <v>548</v>
       </c>
@@ -5615,7 +6204,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="H88" t="s">
         <v>854</v>
       </c>
@@ -5623,7 +6212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="H89" t="s">
         <v>543</v>
       </c>
@@ -5631,7 +6220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="H90" t="s">
         <v>560</v>
       </c>
@@ -5639,7 +6228,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="H91" t="s">
         <v>544</v>
       </c>
@@ -5647,7 +6236,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="H92" t="s">
         <v>545</v>
       </c>
@@ -5655,7 +6244,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="H93" t="s">
         <v>578</v>
       </c>
@@ -5663,7 +6252,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="H94" t="s">
         <v>584</v>
       </c>
@@ -5671,7 +6260,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="H95" t="s">
         <v>567</v>
       </c>
@@ -5679,7 +6268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="H96" t="s">
         <v>614</v>
       </c>
@@ -5687,7 +6276,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="H97" t="s">
         <v>549</v>
       </c>
@@ -5695,7 +6284,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="H98" t="s">
         <v>550</v>
       </c>
@@ -5703,304 +6292,304 @@
         <v>875</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="AA99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="AA100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="AA101" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="AA102" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="AA103" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="AA104" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="AA105" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="AA106" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="AA107" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="AA108" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="AA109" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="AA110" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="AA111" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="AA112" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="AA113" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="AA114" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="AA115" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="AA116" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="AA117" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="AA118" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="AA119" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="AA120" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="AA121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="AA122" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="AA123" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="AA124" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="AA125" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="AA126" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="AA127" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="AA128" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="AA129" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="AA130" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="AA131" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="AA132" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="AA133" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="AA134" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="AA135" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="AA136" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="AA137" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="AA138" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="AA139" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="AA140" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="AA141" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="AA142" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="AA143" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="AA144" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="AA145" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="AA146" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="AA147" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="AA148" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="149" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="AA149" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="150" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="AA150" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="151" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="AA151" t="s">
         <v>926</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A80" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="23.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="23.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="58.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="9.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="44.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="35.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="44.375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="23.625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="25" width="39.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6031,7 +6620,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -6052,7 +6641,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -6069,7 +6658,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>428</v>
       </c>
@@ -6114,7 +6703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>209</v>
       </c>
@@ -6141,7 +6730,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>210</v>
@@ -6166,7 +6755,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>213</v>
@@ -6193,7 +6782,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -6216,7 +6805,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -6241,7 +6830,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -6264,7 +6853,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>217</v>
@@ -6291,7 +6880,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -6316,7 +6905,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>219</v>
@@ -6343,7 +6932,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -6368,7 +6957,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>222</v>
@@ -6395,7 +6984,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -6420,7 +7009,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -6445,7 +7034,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -6468,7 +7057,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>226</v>
@@ -6495,7 +7084,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -6522,7 +7111,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -6547,7 +7136,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -6572,7 +7161,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
@@ -6597,7 +7186,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>232</v>
@@ -6626,7 +7215,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
@@ -6653,7 +7242,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>236</v>
@@ -6678,7 +7267,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>238</v>
@@ -6703,7 +7292,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
@@ -6730,7 +7319,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>242</v>
@@ -6757,7 +7346,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12" t="s">
@@ -6782,7 +7371,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7" t="s">
         <v>244</v>
@@ -6811,7 +7400,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>246</v>
       </c>
@@ -6842,7 +7431,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
@@ -6867,7 +7456,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
@@ -6892,7 +7481,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
@@ -6919,7 +7508,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
@@ -6944,7 +7533,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>258</v>
@@ -6973,7 +7562,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12" t="s">
@@ -6998,7 +7587,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>263</v>
@@ -7029,7 +7618,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12" t="s">
@@ -7054,7 +7643,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12" t="s">
@@ -7081,7 +7670,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12" t="s">
@@ -7106,7 +7695,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>447</v>
@@ -7137,7 +7726,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="20.100000000000001" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12" t="s">
@@ -7162,7 +7751,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12" t="s">
@@ -7187,7 +7776,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>274</v>
@@ -7214,7 +7803,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12" t="s">
@@ -7239,7 +7828,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>276</v>
       </c>
@@ -7270,7 +7859,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>280</v>
@@ -7299,7 +7888,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>661</v>
@@ -7328,7 +7917,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>662</v>
@@ -7357,7 +7946,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="12" t="s">
@@ -7382,7 +7971,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>284</v>
@@ -7409,7 +7998,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>285</v>
       </c>
@@ -7436,7 +8025,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>778</v>
@@ -7461,7 +8050,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>287</v>
@@ -7488,7 +8077,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>288</v>
@@ -7513,7 +8102,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>289</v>
@@ -7538,7 +8127,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>290</v>
@@ -7563,7 +8152,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="12" t="s">
@@ -7586,7 +8175,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="12" t="s">
@@ -7609,7 +8198,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="12" t="s">
@@ -7632,7 +8221,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="12" t="s">
@@ -7655,7 +8244,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>296</v>
@@ -7682,7 +8271,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="12" t="s">
@@ -7707,7 +8296,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="12" t="s">
@@ -7732,7 +8321,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="12" t="s">
@@ -7757,7 +8346,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="12" t="s">
@@ -7782,7 +8371,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="12" t="s">
@@ -7807,7 +8396,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="12" t="s">
@@ -7832,7 +8421,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="12" t="s">
@@ -7857,7 +8446,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="12" t="s">
@@ -7882,7 +8471,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="12" t="s">
@@ -7907,7 +8496,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="12" t="s">
@@ -7932,7 +8521,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="12" t="s">
@@ -7957,7 +8546,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="12" t="s">
@@ -7982,7 +8571,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="12" t="s">
@@ -8007,7 +8596,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>325</v>
@@ -8034,7 +8623,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="12" t="s">
@@ -8057,7 +8646,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="12" t="s">
@@ -8080,7 +8669,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="12" t="s">
@@ -8105,7 +8694,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="12" t="s">
@@ -8128,7 +8717,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>333</v>
@@ -8155,7 +8744,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="12" t="s">
@@ -8178,7 +8767,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="12" t="s">
@@ -8203,7 +8792,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="12" t="s">
@@ -8226,7 +8815,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>469</v>
@@ -8255,7 +8844,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>470</v>
@@ -8284,7 +8873,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>430</v>
       </c>
@@ -8313,7 +8902,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>663</v>
@@ -8338,7 +8927,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>438</v>
@@ -8365,7 +8954,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>439</v>
@@ -8392,7 +8981,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>436</v>
       </c>
@@ -8421,7 +9010,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>444</v>
@@ -8450,7 +9039,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>472</v>
       </c>
@@ -8481,7 +9070,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="12" t="s">
@@ -8508,7 +9097,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>476</v>
@@ -8535,7 +9124,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>927</v>
       </c>
@@ -8562,7 +9151,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="12" t="s">
@@ -8587,7 +9176,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="12"/>
@@ -8605,7 +9194,7 @@
       <c r="O100" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8613,55 +9202,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="20" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="19" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="18" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C7 C9:C100" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C7 C9:C100" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D7 D9:D100" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D7 D9:D100" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="17.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="25.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="6.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="32.375" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="9" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -8692,7 +9281,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -8713,7 +9302,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -8730,7 +9319,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>428</v>
       </c>
@@ -8775,7 +9364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>340</v>
       </c>
@@ -8802,7 +9391,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>341</v>
@@ -8831,7 +9420,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>344</v>
@@ -8856,7 +9445,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -8881,7 +9470,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -8906,7 +9495,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>347</v>
@@ -8933,7 +9522,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>349</v>
@@ -8960,7 +9549,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -8977,7 +9566,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -8994,7 +9583,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -9011,7 +9600,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -9028,7 +9617,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -9045,7 +9634,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -9062,7 +9651,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -9079,7 +9668,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -9096,7 +9685,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -9113,7 +9702,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -9130,7 +9719,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -9147,7 +9736,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -9164,7 +9753,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -9181,7 +9770,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -9198,7 +9787,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -9215,7 +9804,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -9232,7 +9821,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -9249,7 +9838,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -9266,7 +9855,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -9283,7 +9872,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12"/>
@@ -9300,7 +9889,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -9317,7 +9906,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -9334,7 +9923,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -9351,7 +9940,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -9368,7 +9957,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -9385,7 +9974,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -9402,7 +9991,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -9419,7 +10008,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -9436,7 +10025,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -9453,7 +10042,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -9470,7 +10059,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -9487,7 +10076,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -9504,7 +10093,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -9521,7 +10110,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -9538,7 +10127,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -9555,7 +10144,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -9572,7 +10161,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -9589,7 +10178,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -9606,7 +10195,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -9624,7 +10213,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9632,57 +10221,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="17" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="16" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="15" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="17.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="24.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="44.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="35.875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="52.5" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -9713,7 +10302,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -9734,7 +10323,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -9751,7 +10340,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>428</v>
       </c>
@@ -9796,7 +10385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>350</v>
       </c>
@@ -9823,7 +10412,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -9848,7 +10437,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -9873,7 +10462,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -9898,7 +10487,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -9923,7 +10512,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -9948,7 +10537,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -9973,7 +10562,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -9998,7 +10587,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -10023,7 +10612,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -10048,7 +10637,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -10073,7 +10662,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -10098,7 +10687,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -10123,7 +10712,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -10148,7 +10737,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -10173,7 +10762,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -10198,7 +10787,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -10223,7 +10812,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -10248,7 +10837,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
@@ -10273,7 +10862,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -10298,7 +10887,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
@@ -10323,7 +10912,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>743</v>
       </c>
@@ -10350,7 +10939,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="4" t="s">
         <v>753</v>
@@ -10379,7 +10968,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="4" t="s">
         <v>754</v>
@@ -10406,7 +10995,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="4" t="s">
         <v>757</v>
@@ -10433,7 +11022,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="4" t="s">
         <v>755</v>
@@ -10460,7 +11049,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12" t="s">
@@ -10485,7 +11074,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="4" t="s">
         <v>756</v>
@@ -10512,7 +11101,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="4" t="s">
         <v>755</v>
@@ -10539,7 +11128,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="4" t="s">
         <v>757</v>
@@ -10566,7 +11155,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -10583,7 +11172,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -10600,7 +11189,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -10617,7 +11206,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -10634,7 +11223,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -10651,7 +11240,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -10668,7 +11257,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -10685,7 +11274,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -10702,7 +11291,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -10719,7 +11308,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -10736,7 +11325,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -10753,7 +11342,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -10770,7 +11359,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -10787,7 +11376,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -10804,7 +11393,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -10821,7 +11410,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -10839,7 +11428,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10847,56 +11436,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="75.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="20.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="9.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="75.625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -10927,7 +11516,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="103.5" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -10948,7 +11537,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -10965,7 +11554,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>428</v>
       </c>
@@ -11010,7 +11599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>492</v>
       </c>
@@ -11037,7 +11626,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -11062,7 +11651,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -11087,7 +11676,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -11112,7 +11701,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -11137,7 +11726,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -11162,7 +11751,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -11187,7 +11776,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -11212,7 +11801,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -11237,7 +11826,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -11262,7 +11851,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -11287,7 +11876,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -11312,7 +11901,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -11337,7 +11926,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -11362,7 +11951,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -11387,7 +11976,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -11412,7 +12001,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -11437,7 +12026,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -11462,7 +12051,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>453</v>
       </c>
@@ -11489,7 +12078,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -11514,7 +12103,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
@@ -11539,7 +12128,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
@@ -11564,7 +12153,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12" t="s">
@@ -11589,7 +12178,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
@@ -11614,7 +12203,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12" t="s">
@@ -11639,7 +12228,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12" t="s">
@@ -11664,7 +12253,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
@@ -11689,7 +12278,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12" t="s">
@@ -11714,7 +12303,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>627</v>
       </c>
@@ -11739,7 +12328,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -11756,7 +12345,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -11773,7 +12362,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -11790,7 +12379,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -11807,7 +12396,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -11824,7 +12413,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -11841,7 +12430,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -11858,7 +12447,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -11875,7 +12464,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -11892,7 +12481,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -11909,7 +12498,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -11926,7 +12515,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -11943,7 +12532,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -11960,7 +12549,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -11977,7 +12566,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -11994,7 +12583,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -12011,7 +12600,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -12029,7 +12618,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -12037,55 +12626,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="18.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="9.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="9" width="20.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -12116,7 +12705,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
@@ -12137,7 +12726,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -12154,7 +12743,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>428</v>
       </c>
@@ -12199,7 +12788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>493</v>
       </c>
@@ -12226,7 +12815,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -12249,7 +12838,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -12272,7 +12861,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -12295,7 +12884,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -12318,7 +12907,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -12341,7 +12930,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -12364,7 +12953,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -12387,7 +12976,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -12410,7 +12999,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -12433,7 +13022,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -12456,7 +13045,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -12479,7 +13068,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -12502,7 +13091,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -12525,7 +13114,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -12548,7 +13137,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>760</v>
       </c>
@@ -12575,7 +13164,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -12600,7 +13189,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -12625,7 +13214,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
@@ -12650,7 +13239,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -12675,7 +13264,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -12692,7 +13281,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -12709,7 +13298,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -12726,7 +13315,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -12743,7 +13332,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -12760,7 +13349,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -12777,7 +13366,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -12794,7 +13383,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -12811,7 +13400,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -12828,7 +13417,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -12845,7 +13434,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -12862,7 +13451,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -12879,7 +13468,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -12896,7 +13485,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -12913,7 +13502,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -12930,7 +13519,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -12947,7 +13536,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -12964,7 +13553,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -12981,7 +13570,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -12998,7 +13587,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -13015,7 +13604,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -13032,7 +13621,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -13049,7 +13638,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -13066,7 +13655,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -13083,7 +13672,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -13100,7 +13689,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -13118,7 +13707,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -13126,55 +13715,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="50.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="17.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="50.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="43.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="35.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -13205,7 +13794,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>398</v>
       </c>
@@ -13226,7 +13815,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -13243,7 +13832,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>428</v>
       </c>
@@ -13317,7 +13906,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -13342,7 +13931,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -13367,7 +13956,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -13392,7 +13981,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>400</v>
       </c>
@@ -13421,7 +14010,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -13446,7 +14035,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>401</v>
       </c>
@@ -13473,7 +14062,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -13496,7 +14085,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>402</v>
       </c>
@@ -13525,7 +14114,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -13550,7 +14139,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>418</v>
       </c>
@@ -13577,7 +14166,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -13600,7 +14189,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>419</v>
@@ -13627,7 +14216,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -13654,7 +14243,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>349</v>
       </c>
@@ -13681,7 +14270,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -13706,7 +14295,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -13731,7 +14320,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>422</v>
@@ -13756,7 +14345,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -13773,7 +14362,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -13790,7 +14379,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -13807,7 +14396,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -13824,7 +14413,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -13841,7 +14430,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -13858,7 +14447,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -13875,7 +14464,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -13892,7 +14481,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -13909,7 +14498,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -13926,7 +14515,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -13943,7 +14532,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -13960,7 +14549,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -13977,7 +14566,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -13994,7 +14583,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -14011,7 +14600,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -14028,7 +14617,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -14045,7 +14634,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -14062,7 +14651,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -14079,7 +14668,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -14096,7 +14685,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -14113,7 +14702,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -14130,7 +14719,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -14147,7 +14736,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -14164,7 +14753,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -14181,7 +14770,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -14198,7 +14787,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -14215,7 +14804,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -14233,7 +14822,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -14241,56 +14830,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="18.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="40.0" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -14321,7 +14910,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -14340,7 +14929,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -14357,7 +14946,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>428</v>
       </c>
@@ -14402,7 +14991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>838</v>
       </c>
@@ -14429,7 +15018,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -14454,7 +15043,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>845</v>
       </c>
@@ -14481,7 +15070,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -14506,7 +15095,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>846</v>
       </c>
@@ -14533,7 +15122,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -14558,7 +15147,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="66.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -14583,7 +15172,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -14608,7 +15197,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -14633,7 +15222,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -14650,7 +15239,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -14667,7 +15256,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -14684,7 +15273,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -14701,7 +15290,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -14718,7 +15307,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -14735,7 +15324,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -14752,7 +15341,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -14769,7 +15358,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -14786,7 +15375,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -14803,7 +15392,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -14820,7 +15409,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -14837,7 +15426,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -14854,7 +15443,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -14871,7 +15460,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -14888,7 +15477,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -14905,7 +15494,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -14922,7 +15511,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -14939,7 +15528,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -14956,7 +15545,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -14973,7 +15562,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -14990,7 +15579,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -15007,7 +15596,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -15024,7 +15613,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -15041,7 +15630,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -15058,7 +15647,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -15075,7 +15664,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -15092,7 +15681,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -15109,7 +15698,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -15126,7 +15715,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -15143,7 +15732,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -15160,7 +15749,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -15177,7 +15766,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -15194,7 +15783,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -15211,7 +15800,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -15228,7 +15817,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -15245,7 +15834,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -15263,7 +15852,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -15271,25 +15860,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
@@ -35,12 +35,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="938">
   <si>
     <t>description</t>
   </si>
@@ -2888,6 +2888,18 @@
   </si>
   <si>
     <t>^[A-Z].+[a-z]$</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2895,7 +2907,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="79" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3186,8 +3198,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="100">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3204,6 +3430,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3670,7 +4168,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3853,55 +4351,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="48" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="51" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4597,7 +5197,7 @@
         <v>792</v>
       </c>
       <c r="Q2" t="s">
-        <v>705</v>
+        <v>935</v>
       </c>
       <c r="R2" t="s">
         <v>706</v>
@@ -4691,6 +5291,9 @@
       <c r="P3" t="s">
         <v>793</v>
       </c>
+      <c r="Q3" t="s">
+        <v>936</v>
+      </c>
       <c r="R3" t="s">
         <v>707</v>
       </c>
@@ -4777,6 +5380,9 @@
       <c r="P4" t="s">
         <v>794</v>
       </c>
+      <c r="Q4" t="s">
+        <v>937</v>
+      </c>
       <c r="R4" t="s">
         <v>19</v>
       </c>
@@ -4988,7 +5594,7 @@
         <v>621</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>934</v>
       </c>
       <c r="N7" t="s">
         <v>588</v>
@@ -5050,7 +5656,7 @@
         <v>855</v>
       </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="N8" t="s">
         <v>187</v>
@@ -5109,7 +5715,7 @@
         <v>601</v>
       </c>
       <c r="L9" t="s">
-        <v>816</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
         <v>188</v>
@@ -5159,7 +5765,7 @@
         <v>897</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>816</v>
       </c>
       <c r="N10" t="s">
         <v>189</v>
@@ -5203,7 +5809,7 @@
         <v>898</v>
       </c>
       <c r="L11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="N11" t="s">
         <v>784</v>
@@ -5241,7 +5847,7 @@
         <v>736</v>
       </c>
       <c r="L12" t="s">
-        <v>817</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s">
         <v>856</v>
@@ -5279,7 +5885,7 @@
         <v>594</v>
       </c>
       <c r="L13" t="s">
-        <v>667</v>
+        <v>817</v>
       </c>
       <c r="N13" t="s">
         <v>727</v>
@@ -5317,7 +5923,7 @@
         <v>595</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>667</v>
       </c>
       <c r="N14" t="s">
         <v>785</v>
@@ -5352,7 +5958,7 @@
         <v>596</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s">
         <v>190</v>
@@ -5387,7 +5993,7 @@
         <v>597</v>
       </c>
       <c r="L16" t="s">
-        <v>818</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
         <v>867</v>
@@ -5419,7 +6025,7 @@
         <v>590</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>818</v>
       </c>
       <c r="N17" t="s">
         <v>191</v>
@@ -5448,7 +6054,7 @@
         <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N18" t="s">
         <v>192</v>
@@ -5474,7 +6080,7 @@
         <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>740</v>
+        <v>168</v>
       </c>
       <c r="AA19" t="s">
         <v>814</v>
@@ -5494,7 +6100,7 @@
         <v>568</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>740</v>
       </c>
       <c r="AA20" t="s">
         <v>53</v>
@@ -5514,7 +6120,7 @@
         <v>569</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA21" t="s">
         <v>54</v>
@@ -5534,7 +6140,7 @@
         <v>570</v>
       </c>
       <c r="L22" t="s">
-        <v>881</v>
+        <v>170</v>
       </c>
       <c r="AA22" t="s">
         <v>55</v>
@@ -5554,7 +6160,7 @@
         <v>571</v>
       </c>
       <c r="L23" t="s">
-        <v>783</v>
+        <v>881</v>
       </c>
       <c r="AA23" t="s">
         <v>56</v>
@@ -5574,7 +6180,7 @@
         <v>562</v>
       </c>
       <c r="L24" t="s">
-        <v>149</v>
+        <v>783</v>
       </c>
       <c r="AA24" t="s">
         <v>795</v>
@@ -5594,7 +6200,7 @@
         <v>551</v>
       </c>
       <c r="L25" t="s">
-        <v>669</v>
+        <v>149</v>
       </c>
       <c r="AA25" t="s">
         <v>57</v>
@@ -5614,7 +6220,7 @@
         <v>155</v>
       </c>
       <c r="L26" t="s">
-        <v>917</v>
+        <v>669</v>
       </c>
       <c r="AA26" t="s">
         <v>870</v>
@@ -5634,7 +6240,7 @@
         <v>554</v>
       </c>
       <c r="L27" t="s">
-        <v>835</v>
+        <v>917</v>
       </c>
       <c r="AA27" t="s">
         <v>58</v>
@@ -5654,7 +6260,7 @@
         <v>538</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>835</v>
       </c>
       <c r="AA28" t="s">
         <v>59</v>
@@ -5671,7 +6277,7 @@
         <v>555</v>
       </c>
       <c r="L29" t="s">
-        <v>726</v>
+        <v>150</v>
       </c>
       <c r="AA29" t="s">
         <v>60</v>
@@ -5688,7 +6294,7 @@
         <v>556</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>726</v>
       </c>
       <c r="AA30" t="s">
         <v>61</v>
@@ -5705,7 +6311,7 @@
         <v>390</v>
       </c>
       <c r="L31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA31" t="s">
         <v>599</v>
@@ -5720,6 +6326,9 @@
       </c>
       <c r="H32" t="s">
         <v>547</v>
+      </c>
+      <c r="L32" t="s">
+        <v>152</v>
       </c>
       <c r="AA32" t="s">
         <v>62</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
@@ -40,12 +40,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="944">
   <si>
     <t>description</t>
   </si>
@@ -2900,6 +2900,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +2925,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3412,8 +3430,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="100">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3430,6 +3555,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4168,7 +4429,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4453,55 +4714,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="68" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5197,7 +5509,7 @@
         <v>792</v>
       </c>
       <c r="Q2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="R2" t="s">
         <v>706</v>
@@ -5292,7 +5604,7 @@
         <v>793</v>
       </c>
       <c r="Q3" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="R3" t="s">
         <v>707</v>
@@ -5381,7 +5693,7 @@
         <v>794</v>
       </c>
       <c r="Q4" t="s">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="R4" t="s">
         <v>19</v>
@@ -5463,6 +5775,9 @@
       <c r="O5" t="s">
         <v>836</v>
       </c>
+      <c r="Q5" t="s">
+        <v>940</v>
+      </c>
       <c r="R5" t="s">
         <v>21</v>
       </c>
@@ -5897,7 +6212,7 @@
         <v>164</v>
       </c>
       <c r="S13" t="s">
-        <v>520</v>
+        <v>941</v>
       </c>
       <c r="AA13" t="s">
         <v>598</v>
@@ -5932,7 +6247,7 @@
         <v>165</v>
       </c>
       <c r="S14" t="s">
-        <v>888</v>
+        <v>520</v>
       </c>
       <c r="AA14" t="s">
         <v>51</v>
@@ -5967,7 +6282,7 @@
         <v>812</v>
       </c>
       <c r="S15" t="s">
-        <v>525</v>
+        <v>888</v>
       </c>
       <c r="AA15" t="s">
         <v>908</v>
@@ -6002,7 +6317,7 @@
         <v>813</v>
       </c>
       <c r="S16" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AA16" t="s">
         <v>889</v>
@@ -6031,7 +6346,7 @@
         <v>191</v>
       </c>
       <c r="S17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA17" t="s">
         <v>52</v>
@@ -6060,7 +6375,7 @@
         <v>192</v>
       </c>
       <c r="S18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA18" t="s">
         <v>44</v>
@@ -6082,6 +6397,9 @@
       <c r="L19" t="s">
         <v>168</v>
       </c>
+      <c r="S19" t="s">
+        <v>942</v>
+      </c>
       <c r="AA19" t="s">
         <v>814</v>
       </c>
@@ -6102,6 +6420,9 @@
       <c r="L20" t="s">
         <v>740</v>
       </c>
+      <c r="S20" t="s">
+        <v>523</v>
+      </c>
       <c r="AA20" t="s">
         <v>53</v>
       </c>
@@ -6121,6 +6442,9 @@
       </c>
       <c r="L21" t="s">
         <v>169</v>
+      </c>
+      <c r="S21" t="s">
+        <v>943</v>
       </c>
       <c r="AA21" t="s">
         <v>54</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
@@ -27,12 +27,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -53,15 +53,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="981">
   <si>
     <t>description</t>
   </si>
@@ -2918,6 +2920,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2925,7 +3038,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="96" x14ac:knownFonts="1">
+  <fonts count="113" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3537,8 +3650,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="148">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3555,6 +3775,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4429,7 +4785,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4814,6 +5170,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="141" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5346,7 +5753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -5450,12 +5857,18 @@
         <v>34</v>
       </c>
       <c r="AD1" t="s">
+        <v>944</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>945</v>
+      </c>
+      <c r="AF1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>700</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5548,12 +5961,18 @@
         <v>123</v>
       </c>
       <c r="AD2" t="s">
+        <v>970</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>973</v>
+      </c>
+      <c r="AF2" t="s">
         <v>132</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>717</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>803</v>
       </c>
     </row>
@@ -5640,12 +6059,18 @@
         <v>124</v>
       </c>
       <c r="AD3" t="s">
+        <v>971</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>974</v>
+      </c>
+      <c r="AF3" t="s">
         <v>636</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>131</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5729,12 +6154,18 @@
         <v>125</v>
       </c>
       <c r="AD4" t="s">
+        <v>972</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>975</v>
+      </c>
+      <c r="AF4" t="s">
         <v>131</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>718</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5805,13 +6236,16 @@
       <c r="AC5" t="s">
         <v>895</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>976</v>
+      </c>
+      <c r="AF5" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>719</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5876,13 +6310,16 @@
       <c r="AC6" t="s">
         <v>126</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>977</v>
+      </c>
+      <c r="AF6" t="s">
         <v>134</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>720</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5941,13 +6378,16 @@
       <c r="AC7" t="s">
         <v>127</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>978</v>
+      </c>
+      <c r="AF7" t="s">
         <v>135</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>721</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>858</v>
       </c>
     </row>
@@ -5965,7 +6405,7 @@
         <v>638</v>
       </c>
       <c r="I8" t="s">
-        <v>600</v>
+        <v>966</v>
       </c>
       <c r="K8" t="s">
         <v>855</v>
@@ -6003,13 +6443,16 @@
       <c r="AC8" t="s">
         <v>128</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>979</v>
+      </c>
+      <c r="AF8" t="s">
         <v>136</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>722</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>859</v>
       </c>
     </row>
@@ -6027,7 +6470,7 @@
         <v>639</v>
       </c>
       <c r="I9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L9" t="s">
         <v>145</v>
@@ -6059,10 +6502,13 @@
       <c r="AC9" t="s">
         <v>129</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="s">
         <v>179</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>860</v>
       </c>
     </row>
@@ -6077,7 +6523,7 @@
         <v>579</v>
       </c>
       <c r="I10" t="s">
-        <v>897</v>
+        <v>601</v>
       </c>
       <c r="L10" t="s">
         <v>816</v>
@@ -6103,10 +6549,10 @@
       <c r="AC10" t="s">
         <v>896</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>180</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6121,7 +6567,7 @@
         <v>625</v>
       </c>
       <c r="I11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L11" t="s">
         <v>166</v>
@@ -6141,10 +6587,10 @@
       <c r="AA11" t="s">
         <v>530</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>531</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6159,7 +6605,7 @@
         <v>546</v>
       </c>
       <c r="I12" t="s">
-        <v>736</v>
+        <v>898</v>
       </c>
       <c r="L12" t="s">
         <v>146</v>
@@ -6179,10 +6625,10 @@
       <c r="AA12" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>137</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6197,7 +6643,7 @@
         <v>535</v>
       </c>
       <c r="I13" t="s">
-        <v>594</v>
+        <v>736</v>
       </c>
       <c r="L13" t="s">
         <v>817</v>
@@ -6217,10 +6663,10 @@
       <c r="AA13" t="s">
         <v>598</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>138</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>787</v>
       </c>
     </row>
@@ -6235,7 +6681,7 @@
         <v>589</v>
       </c>
       <c r="I14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L14" t="s">
         <v>667</v>
@@ -6252,10 +6698,10 @@
       <c r="AA14" t="s">
         <v>51</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>139</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>804</v>
       </c>
     </row>
@@ -6270,7 +6716,7 @@
         <v>536</v>
       </c>
       <c r="I15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L15" t="s">
         <v>147</v>
@@ -6287,10 +6733,10 @@
       <c r="AA15" t="s">
         <v>908</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>140</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>805</v>
       </c>
     </row>
@@ -6305,7 +6751,7 @@
         <v>537</v>
       </c>
       <c r="I16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L16" t="s">
         <v>148</v>
@@ -6322,10 +6768,10 @@
       <c r="AA16" t="s">
         <v>889</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>141</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>809</v>
       </c>
     </row>
@@ -6339,6 +6785,9 @@
       <c r="H17" t="s">
         <v>590</v>
       </c>
+      <c r="I17" t="s">
+        <v>597</v>
+      </c>
       <c r="L17" t="s">
         <v>818</v>
       </c>
@@ -6351,10 +6800,10 @@
       <c r="AA17" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>775</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>810</v>
       </c>
     </row>
@@ -6368,6 +6817,9 @@
       <c r="H18" t="s">
         <v>177</v>
       </c>
+      <c r="I18" t="s">
+        <v>967</v>
+      </c>
       <c r="L18" t="s">
         <v>167</v>
       </c>
@@ -6380,7 +6832,7 @@
       <c r="AA18" t="s">
         <v>44</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>788</v>
       </c>
     </row>
@@ -6389,7 +6841,7 @@
         <v>510</v>
       </c>
       <c r="F19" t="s">
-        <v>701</v>
+        <v>946</v>
       </c>
       <c r="H19" t="s">
         <v>178</v>
@@ -6403,7 +6855,7 @@
       <c r="AA19" t="s">
         <v>814</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>806</v>
       </c>
     </row>
@@ -6412,7 +6864,7 @@
         <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>912</v>
+        <v>947</v>
       </c>
       <c r="H20" t="s">
         <v>568</v>
@@ -6426,7 +6878,7 @@
       <c r="AA20" t="s">
         <v>53</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>807</v>
       </c>
     </row>
@@ -6435,7 +6887,7 @@
         <v>685</v>
       </c>
       <c r="F21" t="s">
-        <v>913</v>
+        <v>701</v>
       </c>
       <c r="H21" t="s">
         <v>569</v>
@@ -6449,7 +6901,7 @@
       <c r="AA21" t="s">
         <v>54</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>811</v>
       </c>
     </row>
@@ -6458,7 +6910,7 @@
         <v>698</v>
       </c>
       <c r="F22" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H22" t="s">
         <v>570</v>
@@ -6469,7 +6921,7 @@
       <c r="AA22" t="s">
         <v>55</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6478,7 +6930,7 @@
         <v>699</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>913</v>
       </c>
       <c r="H23" t="s">
         <v>571</v>
@@ -6489,7 +6941,7 @@
       <c r="AA23" t="s">
         <v>56</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>861</v>
       </c>
     </row>
@@ -6498,7 +6950,7 @@
         <v>629</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>914</v>
       </c>
       <c r="H24" t="s">
         <v>562</v>
@@ -6509,7 +6961,7 @@
       <c r="AA24" t="s">
         <v>795</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>862</v>
       </c>
     </row>
@@ -6518,7 +6970,7 @@
         <v>681</v>
       </c>
       <c r="F25" t="s">
-        <v>528</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
         <v>551</v>
@@ -6529,7 +6981,7 @@
       <c r="AA25" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>863</v>
       </c>
     </row>
@@ -6538,18 +6990,18 @@
         <v>901</v>
       </c>
       <c r="F26" t="s">
-        <v>915</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>948</v>
       </c>
       <c r="L26" t="s">
         <v>669</v>
       </c>
       <c r="AA26" t="s">
-        <v>870</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>968</v>
+      </c>
+      <c r="AH26" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6558,18 +7010,18 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>864</v>
+        <v>528</v>
       </c>
       <c r="H27" t="s">
-        <v>554</v>
+        <v>949</v>
       </c>
       <c r="L27" t="s">
         <v>917</v>
       </c>
       <c r="AA27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>870</v>
+      </c>
+      <c r="AH27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6578,16 +7030,16 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>915</v>
       </c>
       <c r="H28" t="s">
-        <v>538</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s">
         <v>835</v>
       </c>
       <c r="AA28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -6595,898 +7047,959 @@
         <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>593</v>
+        <v>864</v>
       </c>
       <c r="H29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L29" t="s">
         <v>150</v>
       </c>
       <c r="AA29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>944</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="L30" t="s">
         <v>726</v>
       </c>
       <c r="AA30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>700</v>
+        <v>945</v>
       </c>
       <c r="F31" t="s">
-        <v>733</v>
+        <v>593</v>
       </c>
       <c r="H31" t="s">
-        <v>390</v>
+        <v>555</v>
       </c>
       <c r="L31" t="s">
         <v>151</v>
       </c>
       <c r="AA31" t="s">
-        <v>599</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>481</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="L32" t="s">
         <v>152</v>
       </c>
       <c r="AA32" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>700</v>
+      </c>
+      <c r="F33" t="s">
+        <v>733</v>
+      </c>
+      <c r="H33" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>451</v>
-      </c>
-      <c r="H33" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>481</v>
+      </c>
+      <c r="F34" t="s">
+        <v>450</v>
+      </c>
+      <c r="H34" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA34" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>781</v>
-      </c>
-      <c r="H34" t="s">
-        <v>820</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>782</v>
+        <v>451</v>
       </c>
       <c r="H35" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="AA35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>702</v>
+        <v>781</v>
       </c>
       <c r="H36" t="s">
-        <v>602</v>
+        <v>820</v>
       </c>
       <c r="AA36" t="s">
-        <v>871</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>157</v>
+        <v>782</v>
       </c>
       <c r="H37" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="AA37" t="s">
-        <v>66</v>
+        <v>871</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>41</v>
+        <v>702</v>
       </c>
       <c r="H38" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="AA38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA39" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AA40" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>156</v>
+        <v>581</v>
       </c>
       <c r="AA41" t="s">
-        <v>612</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="AA42" t="s">
-        <v>715</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="H43" t="s">
-        <v>865</v>
+        <v>950</v>
       </c>
       <c r="AA43" t="s">
-        <v>880</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H44" t="s">
-        <v>561</v>
+        <v>156</v>
       </c>
       <c r="AA44" t="s">
-        <v>670</v>
+        <v>880</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" t="s">
+        <v>865</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>916</v>
       </c>
-      <c r="H45" t="s">
-        <v>572</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA47" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="AA48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>208</v>
+        <v>573</v>
       </c>
       <c r="AA49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="AA50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AA51" t="s">
-        <v>909</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>640</v>
+        <v>208</v>
       </c>
       <c r="AA52" t="s">
-        <v>391</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>628</v>
+        <v>951</v>
       </c>
       <c r="AA54" t="s">
-        <v>857</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>603</v>
+        <v>952</v>
       </c>
       <c r="AA55" t="s">
-        <v>76</v>
+        <v>857</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>540</v>
+        <v>953</v>
       </c>
       <c r="AA56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>564</v>
+        <v>954</v>
       </c>
       <c r="AA57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>565</v>
+        <v>613</v>
       </c>
       <c r="AA58" t="s">
-        <v>796</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>866</v>
+        <v>640</v>
       </c>
       <c r="AA59" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="AA60" t="s">
-        <v>79</v>
+        <v>777</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="AA61" t="s">
-        <v>620</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="AA62" t="s">
-        <v>771</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="AA63" t="s">
-        <v>80</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="AA64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>583</v>
+        <v>866</v>
       </c>
       <c r="AA65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>641</v>
+        <v>566</v>
       </c>
       <c r="AA66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>642</v>
+        <v>955</v>
       </c>
       <c r="AA67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>619</v>
+        <v>956</v>
       </c>
       <c r="AA68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>586</v>
+        <v>957</v>
       </c>
       <c r="AA69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="AA70" t="s">
-        <v>724</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>853</v>
+        <v>958</v>
       </c>
       <c r="AA71" t="s">
-        <v>786</v>
+        <v>724</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>587</v>
+        <v>959</v>
       </c>
       <c r="AA72" t="s">
-        <v>392</v>
+        <v>786</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>695</v>
+        <v>611</v>
       </c>
       <c r="AA73" t="s">
-        <v>666</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="AA74" t="s">
-        <v>728</v>
+        <v>666</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>696</v>
+        <v>583</v>
       </c>
       <c r="AA75" t="s">
-        <v>87</v>
+        <v>728</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>534</v>
+        <v>641</v>
       </c>
       <c r="AA76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>821</v>
+        <v>642</v>
       </c>
       <c r="AA77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AA78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="AA79" t="s">
-        <v>919</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AA80" t="s">
-        <v>194</v>
+        <v>919</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>563</v>
+        <v>853</v>
       </c>
       <c r="AA81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>703</v>
+        <v>587</v>
       </c>
       <c r="AA82" t="s">
-        <v>738</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>604</v>
+        <v>695</v>
       </c>
       <c r="AA83" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>542</v>
+        <v>960</v>
       </c>
       <c r="AA84" t="s">
-        <v>91</v>
+        <v>780</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>553</v>
+        <v>961</v>
       </c>
       <c r="AA85" t="s">
-        <v>92</v>
+        <v>969</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="AA86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>548</v>
+        <v>821</v>
       </c>
       <c r="AA87" t="s">
-        <v>808</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>854</v>
+        <v>618</v>
       </c>
       <c r="AA88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="AA89" t="s">
-        <v>95</v>
+        <v>808</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>560</v>
+        <v>962</v>
       </c>
       <c r="AA90" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>544</v>
+        <v>963</v>
       </c>
       <c r="AA91" t="s">
-        <v>797</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="AA92" t="s">
-        <v>887</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>578</v>
+        <v>703</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>797</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="AA94" t="s">
-        <v>737</v>
+        <v>887</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="AA95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>614</v>
+        <v>553</v>
       </c>
       <c r="AA96" t="s">
-        <v>199</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="AA97" t="s">
-        <v>874</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>854</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>964</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>965</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>550</v>
       </c>
-      <c r="AA98" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>205</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>819</v>
+        <v>890</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>920</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>921</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>822</v>
+        <v>920</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>97</v>
+        <v>921</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>655</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>98</v>
+        <v>823</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>99</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>891</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>101</v>
+        <v>891</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>892</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>103</v>
+        <v>892</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>893</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>109</v>
+        <v>893</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>910</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>872</v>
+        <v>910</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>113</v>
+        <v>872</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>922</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>894</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>115</v>
+        <v>922</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>116</v>
+        <v>894</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>923</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>924</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>926</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part1.xlsx
@@ -28,42 +28,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6107" uniqueCount="1106">
   <si>
     <t>description</t>
   </si>
@@ -3031,6 +3034,381 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3416,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="130" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3757,8 +4135,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="148">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3775,6 +4260,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4785,7 +5406,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5121,106 +5742,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="99" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="102" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="141" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5753,7 +6425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -5788,87 +6460,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>172</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>365</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>982</v>
+      </c>
+      <c r="O1" t="s">
         <v>607</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>182</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>824</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>789</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>193</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>983</v>
+      </c>
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>510</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>181</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>685</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>698</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>699</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>629</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>681</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>901</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>984</v>
+      </c>
+      <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>944</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>945</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>700</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5892,87 +6576,99 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>985</v>
+      </c>
+      <c r="H2" t="s">
         <v>173</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>154</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>734</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>931</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>899</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>588</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>664</v>
+      </c>
+      <c r="O2" t="s">
         <v>656</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>704</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>825</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>792</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>938</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U2" t="s">
         <v>706</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>524</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>903</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>686</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>710</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>711</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>653</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>682</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>905</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AE2" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>123</v>
       </c>
-      <c r="AD2" t="s">
-        <v>970</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AI2" t="s">
         <v>973</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>132</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>717</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>803</v>
       </c>
     </row>
@@ -5993,84 +6689,96 @@
         <v>741</v>
       </c>
       <c r="G3" t="s">
+        <v>986</v>
+      </c>
+      <c r="H3" t="s">
         <v>637</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>176</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>175</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>622</v>
       </c>
-      <c r="L3" t="s">
-        <v>615</v>
-      </c>
       <c r="M3" t="s">
+        <v>993</v>
+      </c>
+      <c r="N3" t="s">
+        <v>994</v>
+      </c>
+      <c r="O3" t="s">
         <v>608</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>183</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>826</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>793</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>939</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="U3" t="s">
         <v>707</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>511</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>904</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>687</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>712</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>654</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>683</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>906</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AE3" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>119</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>124</v>
       </c>
-      <c r="AD3" t="s">
-        <v>971</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AI3" t="s">
         <v>974</v>
       </c>
-      <c r="AF3" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AK3" t="s">
         <v>131</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6088,84 +6796,96 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>987</v>
+      </c>
+      <c r="H4" t="s">
         <v>174</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>664</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>735</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>790</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>623</v>
       </c>
-      <c r="L4" t="s">
-        <v>883</v>
-      </c>
       <c r="M4" t="s">
+        <v>615</v>
+      </c>
+      <c r="N4" t="s">
+        <v>665</v>
+      </c>
+      <c r="O4" t="s">
         <v>609</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>184</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>827</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>794</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>705</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="U4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>512</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>394</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>688</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>713</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>630</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>684</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>907</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AE4" t="s">
         <v>884</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>120</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>125</v>
       </c>
-      <c r="AD4" t="s">
-        <v>972</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>970</v>
+      </c>
+      <c r="AI4" t="s">
         <v>975</v>
       </c>
-      <c r="AF4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>636</v>
+      </c>
+      <c r="AK4" t="s">
         <v>718</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6183,69 +6903,84 @@
         <v>742</v>
       </c>
       <c r="G5" t="s">
+        <v>988</v>
+      </c>
+      <c r="H5" t="s">
         <v>725</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>873</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>739</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>791</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>624</v>
       </c>
-      <c r="L5" t="s">
-        <v>509</v>
+      <c r="M5" t="s">
+        <v>883</v>
       </c>
       <c r="N5" t="s">
+        <v>995</v>
+      </c>
+      <c r="P5" t="s">
         <v>185</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>836</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>940</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>908</v>
+      </c>
+      <c r="U5" t="s">
         <v>21</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>513</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>395</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>689</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>714</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>631</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE5" t="s">
         <v>879</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>121</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>895</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>971</v>
+      </c>
+      <c r="AI5" t="s">
         <v>976</v>
       </c>
-      <c r="AF5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK5" t="s">
         <v>719</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6263,69 +6998,84 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
+        <v>989</v>
+      </c>
+      <c r="H6" t="s">
         <v>815</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>610</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>732</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>852</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>900</v>
       </c>
-      <c r="L6" t="s">
-        <v>774</v>
+      <c r="M6" t="s">
+        <v>509</v>
       </c>
       <c r="N6" t="s">
+        <v>996</v>
+      </c>
+      <c r="P6" t="s">
         <v>186</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>831</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>889</v>
+      </c>
+      <c r="U6" t="s">
         <v>22</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>514</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>396</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>690</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>633</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AE6" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>729</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>126</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>972</v>
+      </c>
+      <c r="AI6" t="s">
         <v>977</v>
       </c>
-      <c r="AF6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK6" t="s">
         <v>720</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>981</v>
       </c>
       <c r="B7" t="s">
         <v>649</v>
@@ -6333,67 +7083,79 @@
       <c r="F7" t="s">
         <v>449</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>990</v>
+      </c>
+      <c r="I7" t="s">
         <v>665</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>731</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>882</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>621</v>
       </c>
-      <c r="L7" t="s">
-        <v>934</v>
+      <c r="M7" t="s">
+        <v>774</v>
       </c>
       <c r="N7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P7" t="s">
         <v>588</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>832</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" t="s">
         <v>24</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>515</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>397</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>691</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>632</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AE7" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>730</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>127</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>978</v>
       </c>
-      <c r="AF7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AK7" t="s">
         <v>721</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>650</v>
@@ -6401,64 +7163,73 @@
       <c r="F8" t="s">
         <v>591</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>638</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>966</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>855</v>
       </c>
-      <c r="L8" t="s">
-        <v>173</v>
+      <c r="M8" t="s">
+        <v>934</v>
       </c>
       <c r="N8" t="s">
+        <v>997</v>
+      </c>
+      <c r="P8" t="s">
         <v>187</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>833</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="U8" t="s">
         <v>161</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>516</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>668</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>692</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>634</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AE8" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>122</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>128</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>979</v>
       </c>
-      <c r="AF8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK8" t="s">
         <v>722</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>651</v>
@@ -6466,1541 +7237,1870 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>639</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>600</v>
       </c>
-      <c r="L9" t="s">
-        <v>145</v>
+      <c r="M9" t="s">
+        <v>173</v>
       </c>
       <c r="N9" t="s">
+        <v>998</v>
+      </c>
+      <c r="P9" t="s">
         <v>188</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>837</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" t="s">
         <v>162</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>517</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>709</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>693</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>635</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AE9" t="s">
         <v>206</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>129</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>980</v>
       </c>
-      <c r="AF9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL9" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>588</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>579</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>601</v>
       </c>
-      <c r="L10" t="s">
-        <v>816</v>
+      <c r="M10" t="s">
+        <v>145</v>
       </c>
       <c r="N10" t="s">
+        <v>999</v>
+      </c>
+      <c r="P10" t="s">
         <v>189</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>828</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U10" t="s">
         <v>708</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>518</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>694</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AE10" t="s">
         <v>529</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>896</v>
       </c>
-      <c r="AF10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL10" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
         <v>930</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>625</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>897</v>
       </c>
-      <c r="L11" t="s">
-        <v>166</v>
+      <c r="M11" t="s">
+        <v>816</v>
       </c>
       <c r="N11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P11" t="s">
         <v>784</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>829</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>814</v>
+      </c>
+      <c r="U11" t="s">
         <v>163</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>918</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AE11" t="s">
         <v>530</v>
       </c>
-      <c r="AF11" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL11" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="F12" t="s">
         <v>878</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>546</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>898</v>
       </c>
-      <c r="L12" t="s">
-        <v>146</v>
+      <c r="M12" t="s">
+        <v>166</v>
       </c>
       <c r="N12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P12" t="s">
         <v>856</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>902</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="U12" t="s">
         <v>26</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>519</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AE12" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL12" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>607</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
         <v>592</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>535</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>736</v>
       </c>
-      <c r="L13" t="s">
-        <v>817</v>
+      <c r="M13" t="s">
+        <v>146</v>
       </c>
       <c r="N13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P13" t="s">
         <v>727</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>830</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="U13" t="s">
         <v>164</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>941</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AE13" t="s">
         <v>598</v>
       </c>
-      <c r="AF13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL13" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>982</v>
       </c>
       <c r="F14" t="s">
         <v>615</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>589</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>594</v>
       </c>
-      <c r="L14" t="s">
-        <v>667</v>
+      <c r="M14" t="s">
+        <v>817</v>
       </c>
       <c r="N14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P14" t="s">
         <v>785</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="U14" t="s">
         <v>165</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>520</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AE14" t="s">
         <v>51</v>
       </c>
-      <c r="AF14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AL14" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>824</v>
+        <v>607</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>536</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>595</v>
       </c>
-      <c r="L15" t="s">
-        <v>147</v>
+      <c r="M15" t="s">
+        <v>667</v>
       </c>
       <c r="N15" t="s">
-        <v>190</v>
-      </c>
-      <c r="R15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="U15" t="s">
         <v>812</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>888</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AE15" t="s">
         <v>908</v>
       </c>
-      <c r="AF15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL15" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>789</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>537</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>596</v>
       </c>
-      <c r="L16" t="s">
-        <v>148</v>
+      <c r="M16" t="s">
+        <v>147</v>
       </c>
       <c r="N16" t="s">
-        <v>867</v>
-      </c>
-      <c r="R16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P16" t="s">
+        <v>190</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="U16" t="s">
         <v>813</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>525</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AE16" t="s">
         <v>889</v>
       </c>
-      <c r="AF16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL16" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>824</v>
       </c>
       <c r="F17" t="s">
         <v>657</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>590</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>597</v>
       </c>
-      <c r="L17" t="s">
-        <v>818</v>
-      </c>
-      <c r="N17" t="s">
-        <v>191</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" t="s">
+        <v>867</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>521</v>
       </c>
-      <c r="AA17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>775</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL17" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>789</v>
       </c>
       <c r="F18" t="s">
         <v>658</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>177</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>967</v>
       </c>
-      <c r="L18" t="s">
-        <v>167</v>
-      </c>
-      <c r="N18" t="s">
-        <v>192</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>818</v>
+      </c>
+      <c r="P18" t="s">
+        <v>191</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="V18" t="s">
         <v>522</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AE18" t="s">
         <v>44</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL18" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
         <v>946</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>178</v>
       </c>
-      <c r="L19" t="s">
-        <v>168</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" t="s">
+        <v>192</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="V19" t="s">
         <v>942</v>
       </c>
-      <c r="AA19" t="s">
-        <v>814</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL19" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>983</v>
       </c>
       <c r="F20" t="s">
         <v>947</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>568</v>
       </c>
-      <c r="L20" t="s">
-        <v>740</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="V20" t="s">
         <v>523</v>
       </c>
-      <c r="AA20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>814</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>775</v>
+      </c>
+      <c r="AL20" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>685</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>701</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>569</v>
       </c>
-      <c r="L21" t="s">
-        <v>169</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>740</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="V21" t="s">
         <v>943</v>
       </c>
-      <c r="AA21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AL21" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>698</v>
+        <v>510</v>
       </c>
       <c r="F22" t="s">
         <v>912</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>570</v>
       </c>
-      <c r="L22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL22" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>699</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
         <v>913</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>571</v>
       </c>
-      <c r="L23" t="s">
-        <v>881</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>170</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL23" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>629</v>
+        <v>685</v>
       </c>
       <c r="F24" t="s">
         <v>914</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>562</v>
       </c>
-      <c r="L24" t="s">
-        <v>783</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>795</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>881</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL24" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>551</v>
       </c>
-      <c r="L25" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>783</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL25" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>901</v>
+        <v>699</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>948</v>
       </c>
-      <c r="L26" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>968</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>149</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>795</v>
+      </c>
+      <c r="AL26" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>629</v>
       </c>
       <c r="F27" t="s">
         <v>528</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>949</v>
       </c>
-      <c r="L27" t="s">
-        <v>917</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>669</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL27" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>681</v>
       </c>
       <c r="F28" t="s">
         <v>915</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>155</v>
       </c>
-      <c r="L28" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>58</v>
+      <c r="M28" t="s">
+        <v>917</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>901</v>
       </c>
       <c r="F29" t="s">
         <v>864</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>554</v>
       </c>
-      <c r="L29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>59</v>
+      <c r="M29" t="s">
+        <v>835</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>944</v>
+        <v>984</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>538</v>
       </c>
-      <c r="L30" t="s">
-        <v>726</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>60</v>
+      <c r="M30" t="s">
+        <v>150</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>945</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
         <v>593</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>555</v>
       </c>
-      <c r="L31" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>61</v>
+      <c r="M31" t="s">
+        <v>726</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>556</v>
       </c>
-      <c r="L32" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>599</v>
+      <c r="M32" t="s">
+        <v>151</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>700</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
         <v>733</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>390</v>
       </c>
-      <c r="AA33" t="s">
-        <v>62</v>
+      <c r="M33" t="s">
+        <v>152</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>481</v>
+        <v>944</v>
       </c>
       <c r="F34" t="s">
         <v>450</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>547</v>
       </c>
-      <c r="AA34" t="s">
-        <v>63</v>
+      <c r="T34" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>945</v>
+      </c>
       <c r="F35" t="s">
         <v>451</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>557</v>
       </c>
-      <c r="AA35" t="s">
-        <v>64</v>
+      <c r="T35" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
       <c r="F36" t="s">
         <v>781</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>820</v>
       </c>
-      <c r="AA36" t="s">
-        <v>65</v>
+      <c r="T36" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>700</v>
+      </c>
       <c r="F37" t="s">
         <v>782</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>532</v>
       </c>
-      <c r="AA37" t="s">
-        <v>871</v>
+      <c r="T37" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>481</v>
+      </c>
       <c r="F38" t="s">
         <v>702</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>602</v>
       </c>
-      <c r="AA38" t="s">
-        <v>66</v>
+      <c r="T38" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>157</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>580</v>
       </c>
-      <c r="AA39" t="s">
-        <v>67</v>
+      <c r="T39" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>41</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>533</v>
       </c>
-      <c r="AA40" t="s">
-        <v>207</v>
+      <c r="T40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>42</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>581</v>
       </c>
-      <c r="AA41" t="s">
-        <v>68</v>
+      <c r="T41" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>158</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>539</v>
       </c>
-      <c r="AA42" t="s">
-        <v>612</v>
+      <c r="T42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>159</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>950</v>
       </c>
-      <c r="AA43" t="s">
-        <v>715</v>
+      <c r="T43" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>160</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>156</v>
       </c>
-      <c r="AA44" t="s">
-        <v>880</v>
+      <c r="T44" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>43</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>389</v>
       </c>
-      <c r="AA45" t="s">
-        <v>670</v>
+      <c r="T45" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>153</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>865</v>
       </c>
-      <c r="AA46" t="s">
-        <v>69</v>
+      <c r="T46" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>916</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>561</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>572</v>
+      </c>
+      <c r="T48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>573</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>617</v>
+      </c>
+      <c r="T50" t="s">
+        <v>922</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>616</v>
+      </c>
+      <c r="T51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>572</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>951</v>
+      </c>
+      <c r="AE54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>952</v>
+      </c>
+      <c r="AE55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>953</v>
+      </c>
+      <c r="AE56" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>954</v>
+      </c>
+      <c r="AE57" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>951</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>952</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE59" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>953</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>954</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>991</v>
+      </c>
+      <c r="AE61" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE64" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>564</v>
+      </c>
+      <c r="AE65" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE66" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE67" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE68" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>955</v>
+      </c>
+      <c r="AE69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>866</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>956</v>
+      </c>
+      <c r="AE70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>566</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>957</v>
+      </c>
+      <c r="AE71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>955</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>956</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>958</v>
+      </c>
+      <c r="AE73" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>957</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>959</v>
+      </c>
+      <c r="AE74" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE75" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>958</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE76" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>959</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE77" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE78" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>582</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE79" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE80" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE81" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>619</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>853</v>
+      </c>
+      <c r="AE83" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>586</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>587</v>
+      </c>
+      <c r="AE84" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE85" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>853</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>960</v>
+      </c>
+      <c r="AE86" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>587</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>961</v>
+      </c>
+      <c r="AE87" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE88" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>960</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE89" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>961</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE90" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>552</v>
+      </c>
+      <c r="AE91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>821</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>962</v>
+      </c>
+      <c r="AE92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>963</v>
+      </c>
+      <c r="AE93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE94" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>962</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>703</v>
+      </c>
+      <c r="AE95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>963</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>563</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE97" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>703</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE98" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE99" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE100" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>553</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>854</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE102" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE103" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>964</v>
+      </c>
+      <c r="AE104" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>965</v>
+      </c>
+      <c r="AE105" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE106" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE107" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>964</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE108" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>965</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>584</v>
+      </c>
+      <c r="AE109" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>567</v>
+      </c>
+      <c r="AE110" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE111" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE112" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE113" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>550</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>926</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
